--- a/output/3_Regression/h19_test/h23coef_rf.xlsx
+++ b/output/3_Regression/h19_test/h23coef_rf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
   <si>
     <t>Var</t>
   </si>
@@ -22,112 +22,571 @@
     <t>Importance Score</t>
   </si>
   <si>
-    <t>Soybean oil (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_1</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_1</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_3</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_2</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_4</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Wheat (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Soybean oil (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Wheat (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Wheat (US$ per ton)_lag_1</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_1</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_3</t>
-  </si>
-  <si>
-    <t>Circulating Currency Seasonally Adjusted (mill S/)_lag_2</t>
-  </si>
-  <si>
-    <t>Wheat (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Exchange rate_lag_4</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_1</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_3</t>
+    <t>Macroeconomic Expectations - Exchange Rate (12 months)_lag_1</t>
+  </si>
+  <si>
+    <t>Macroeconomic Expectations - Exchange Rate (12 months)_lag_2</t>
+  </si>
+  <si>
+    <t>Macroeconomic Expectations - Exchange Rate (12 months)_lag_3</t>
+  </si>
+  <si>
+    <t>Core CPI - Services - Dining Out_lag_1</t>
+  </si>
+  <si>
+    <t>Core CPI - Services - Dining Out_lag_2</t>
+  </si>
+  <si>
+    <t>Core CPI - Services - Dining Out_lag_3</t>
+  </si>
+  <si>
+    <t>Macroeconomic Expectations - GDP (12 months)_lag_3</t>
+  </si>
+  <si>
+    <t>Macroeconomic Expectations - GDP (12 months)_lag_2</t>
+  </si>
+  <si>
+    <t>Macroeconomic Expectations - GDP (12 months)_lag_1</t>
+  </si>
+  <si>
+    <t>Monetary Policy Rate_lag_3</t>
+  </si>
+  <si>
+    <t>Macroeconomic Expectations - Inflation (12 months)_lag_1</t>
+  </si>
+  <si>
+    <t>Macroeconomic Expectations - Inflation (12 months)_lag_3</t>
+  </si>
+  <si>
+    <t>Private Credit - ME - Consumption (mill US$)_lag_3</t>
+  </si>
+  <si>
+    <t>Private Credit - ME - Consumption (mill US$)_lag_1</t>
+  </si>
+  <si>
+    <t>Terms of Trade - Imports_lag_2</t>
+  </si>
+  <si>
+    <t>Private Credit - ME - Consumption (mill US$)_lag_2</t>
   </si>
   <si>
     <t>Monetary Policy Rate_lag_1</t>
   </si>
   <si>
-    <t>Crude oil (US$ per barrel)_lag_2</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_3</t>
-  </si>
-  <si>
     <t>Monetary Policy Rate_lag_2</t>
   </si>
   <si>
-    <t>Net International Reserves (mill $)_lag_4</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_2</t>
-  </si>
-  <si>
-    <t>Crude oil (US$ per barrel)_lag_4</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_1</t>
-  </si>
-  <si>
-    <t>Net International Reserves (mill $)_lag_1</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_4</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_4</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_1</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_2</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_4</t>
-  </si>
-  <si>
-    <t>Monetary Policy Rate_lag_3</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_2</t>
-  </si>
-  <si>
-    <t>Corn  (US$ per ton)_lag_3</t>
-  </si>
-  <si>
-    <t>Real Minimum Wage (Index)_lag_3</t>
+    <t>Terms of Trade - Imports_lag_3</t>
+  </si>
+  <si>
+    <t>Soybean Oil Price (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Corn Price (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Terms of Trade - Imports_lag_1</t>
+  </si>
+  <si>
+    <t>Private Credit - MN - Consumption (mill S/)_lag_3</t>
+  </si>
+  <si>
+    <t>Employment Ratio (3-month MA)_lag_3</t>
+  </si>
+  <si>
+    <t>Adequately Employed (3-month MA, thousands)_lag_3</t>
+  </si>
+  <si>
+    <t>Macroeconomic Expectations - Inflation (12 months)_lag_2</t>
+  </si>
+  <si>
+    <t>GDP Growth - Non-Primary Manufacturing_lag_3</t>
+  </si>
+  <si>
+    <t>Private Fixed Investment (mill S/ 2007)_lag_3</t>
+  </si>
+  <si>
+    <t>Private Credit - MN - Consumption (mill S/)_lag_1</t>
+  </si>
+  <si>
+    <t>Private Credit - MN - Consumption (mill S/)_lag_2</t>
+  </si>
+  <si>
+    <t>Corn Price (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Private Fixed Investment (mill S/ 2007)_lag_1</t>
+  </si>
+  <si>
+    <t>Employed 45+ (3-month MA, thousands)_lag_3</t>
+  </si>
+  <si>
+    <t>Private Fixed Investment (mill S/ 2007)_lag_2</t>
+  </si>
+  <si>
+    <t>Private Credit - MN - Mortgage (mill S/)_lag_1</t>
+  </si>
+  <si>
+    <t>Private Credit - MN - Mortgage (mill S/)_lag_2</t>
+  </si>
+  <si>
+    <t>Firms 1-10 Workers (3-month MA, thousands)_lag_3</t>
+  </si>
+  <si>
+    <t>Private Credit - MN - Mortgage (mill S/)_lag_3</t>
+  </si>
+  <si>
+    <t>Firms 1-10 Workers (3-month MA, thousands)_lag_2</t>
+  </si>
+  <si>
+    <t>GDP by Expenditure - Domestic Demand ex. Inventories (mill S/ 2007)_lag_3</t>
+  </si>
+  <si>
+    <t>Firms 51+ Workers (3-month MA, thousands)_lag_1</t>
+  </si>
+  <si>
+    <t>Private Consumption (mill S/ 2007)_lag_3</t>
+  </si>
+  <si>
+    <t>Employed 14-24 (3-month MA, thousands)_lag_3</t>
+  </si>
+  <si>
+    <t>Labor Force (3-month MA, thousands)_lag_3</t>
+  </si>
+  <si>
+    <t>GDP Growth - Commerce (annual %)_lag_2</t>
+  </si>
+  <si>
+    <t>Soybean Oil Price (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Corn Price (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Business Expectations - Inventory (MoM)_lag_3</t>
+  </si>
+  <si>
+    <t>Business Expectations - Sector (3 months)_lag_2</t>
+  </si>
+  <si>
+    <t>Unpaid Worker (3-month MA, thousands)_lag_1</t>
+  </si>
+  <si>
+    <t>Employment Ratio (3-month MA)_lag_1</t>
+  </si>
+  <si>
+    <t>Private Consumption (mill S/ 2007)_lag_2</t>
+  </si>
+  <si>
+    <t>Business Expectations - Current Situation_lag_1</t>
+  </si>
+  <si>
+    <t>GDP by Expenditure - Domestic Demand (mill S/ 2007)_lag_3</t>
+  </si>
+  <si>
+    <t>Soybean Oil Price (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Business Expectations - Economy (3 months)_lag_1</t>
+  </si>
+  <si>
+    <t>Firms 51+ Workers (3-month MA, thousands)_lag_3</t>
+  </si>
+  <si>
+    <t>Monthly Income (3-month MA)_lag_3</t>
+  </si>
+  <si>
+    <t>Business Expectations - Sector (3 months)_lag_1</t>
+  </si>
+  <si>
+    <t>Unpaid Worker (3-month MA, thousands)_lag_2</t>
+  </si>
+  <si>
+    <t>Employed 45+ (3-month MA, thousands)_lag_1</t>
+  </si>
+  <si>
+    <t>Employed 25-44 (3-month MA, thousands)_lag_3</t>
+  </si>
+  <si>
+    <t>GDP - Agriculture_lag_3</t>
+  </si>
+  <si>
+    <t>GDP - Construction_lag_1</t>
+  </si>
+  <si>
+    <t>GDP Growth - Commerce (annual %)_lag_1</t>
+  </si>
+  <si>
+    <t>GDP Growth - Non-Primary Manufacturing_lag_2</t>
+  </si>
+  <si>
+    <t>Labor Force (3-month MA, thousands)_lag_1</t>
+  </si>
+  <si>
+    <t>Business Expectations - Demand (3 months)_lag_3</t>
+  </si>
+  <si>
+    <t>Adequately Employed (3-month MA, thousands)_lag_1</t>
+  </si>
+  <si>
+    <t>Business Expectations - Inventory (MoM)_lag_1</t>
+  </si>
+  <si>
+    <t>General Index (base 31/12/91 = 100)_lag_1</t>
+  </si>
+  <si>
+    <t>Firms 11-50 Workers (3-month MA, thousands)_lag_2</t>
+  </si>
+  <si>
+    <t>Wheat Price (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Firms 11-50 Workers (3-month MA, thousands)_lag_1</t>
+  </si>
+  <si>
+    <t>Fishmeal Price (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Dependent Worker (3-month MA, thousands)_lag_1</t>
+  </si>
+  <si>
+    <t>Employed 14-24 (3-month MA, thousands)_lag_1</t>
+  </si>
+  <si>
+    <t>Dependent Worker (3-month MA, thousands)_lag_3</t>
+  </si>
+  <si>
+    <t>Private Consumption (mill S/ 2007)_lag_1</t>
+  </si>
+  <si>
+    <t>Real Exchange Rate Index (monthly %)_lag_1</t>
+  </si>
+  <si>
+    <t>GDP - Fishing_lag_3</t>
+  </si>
+  <si>
+    <t>Firms 51+ Workers (3-month MA, thousands)_lag_2</t>
+  </si>
+  <si>
+    <t>Employed 14-24 (3-month MA, thousands)_lag_2</t>
+  </si>
+  <si>
+    <t>Terms of Trade - Exports_lag_3</t>
+  </si>
+  <si>
+    <t>Public Consumption (mill S/ 2007)_lag_1</t>
+  </si>
+  <si>
+    <t>Business Expectations - Economy (3 months)_lag_2</t>
+  </si>
+  <si>
+    <t>Public Fixed Investment (mill S/ 2007)_lag_3</t>
+  </si>
+  <si>
+    <t>Business Expectations - Sector (3 months)_lag_3</t>
+  </si>
+  <si>
+    <t>Terms of Trade - Exports_lag_2</t>
+  </si>
+  <si>
+    <t>Crude Oil Price (US$ per barrel)_lag_3</t>
+  </si>
+  <si>
+    <t>Reserve Requirement Rate_lag_1</t>
+  </si>
+  <si>
+    <t>Business Expectations - Orders (MoM)_lag_3</t>
+  </si>
+  <si>
+    <t>Capacity Utilization - Food &amp; Beverages_lag_2</t>
+  </si>
+  <si>
+    <t>Selective Index (base 31/12/91 = 100)_lag_1</t>
+  </si>
+  <si>
+    <t>Fishmeal Price (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Capacity Utilization - Food &amp; Beverages_lag_1</t>
+  </si>
+  <si>
+    <t>Public Consumption (mill S/ 2007)_lag_2</t>
+  </si>
+  <si>
+    <t>Terms of Trade - Exports_lag_1</t>
+  </si>
+  <si>
+    <t>Public Fixed Investment (mill S/ 2007)_lag_2</t>
+  </si>
+  <si>
+    <t>Coffee Price (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Crude Oil Price (US$ per barrel)_lag_2</t>
+  </si>
+  <si>
+    <t>GDP Growth - Commerce (annual %)_lag_3</t>
+  </si>
+  <si>
+    <t>GDP - Mining_lag_1</t>
+  </si>
+  <si>
+    <t>Public Consumption (mill S/ 2007)_lag_3</t>
+  </si>
+  <si>
+    <t>Employed 25-44 (3-month MA, thousands)_lag_2</t>
+  </si>
+  <si>
+    <t>Wheat Price (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>Business Expectations - Demand (3 months)_lag_2</t>
+  </si>
+  <si>
+    <t>Gold (US$ per oz troy)_lag_3</t>
+  </si>
+  <si>
+    <t>Copper Price (¢US$ per lb)_lag_1</t>
+  </si>
+  <si>
+    <t>Selective Index (base 31/12/91 = 100)_lag_3</t>
+  </si>
+  <si>
+    <t>Real Exchange Rate Index (monthly %)_lag_2</t>
+  </si>
+  <si>
+    <t>Business Expectations - Current Situation_lag_2</t>
+  </si>
+  <si>
+    <t>Unpaid Worker (3-month MA, thousands)_lag_3</t>
+  </si>
+  <si>
+    <t>GDP Growth - Non-Primary Manufacturing_lag_1</t>
+  </si>
+  <si>
+    <t>Employment Ratio (3-month MA)_lag_2</t>
+  </si>
+  <si>
+    <t>Business Expectations - Inventory (MoM)_lag_2</t>
+  </si>
+  <si>
+    <t>GDP - Non-Primary Manufacturing_lag_1</t>
+  </si>
+  <si>
+    <t>GDP by Expenditure - Domestic Demand ex. Inventories (mill S/ 2007)_lag_1</t>
+  </si>
+  <si>
+    <t>GDP - Non-Primary Manufacturing_lag_3</t>
+  </si>
+  <si>
+    <t>Firms 1-10 Workers (3-month MA, thousands)_lag_1</t>
+  </si>
+  <si>
+    <t>Reserve Requirement Rate_lag_2</t>
+  </si>
+  <si>
+    <t>Gold (US$ per oz troy)_lag_2</t>
+  </si>
+  <si>
+    <t>Capacity Utilization - Food &amp; Beverages_lag_3</t>
+  </si>
+  <si>
+    <t>Labor Force (3-month MA, thousands)_lag_2</t>
+  </si>
+  <si>
+    <t>Wheat Price (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>Employed 45+ (3-month MA, thousands)_lag_2</t>
+  </si>
+  <si>
+    <t>Selective Index (base 31/12/91 = 100)_lag_2</t>
+  </si>
+  <si>
+    <t>General Index (base 31/12/91 = 100)_lag_2</t>
+  </si>
+  <si>
+    <t>GDP by Expenditure - Domestic Demand (mill S/ 2007)_lag_1</t>
+  </si>
+  <si>
+    <t>GDP by Expenditure - Domestic Demand (mill S/ 2007)_lag_2</t>
+  </si>
+  <si>
+    <t>Reserve Requirement Rate_lag_3</t>
+  </si>
+  <si>
+    <t>Employed 25-44 (3-month MA, thousands)_lag_1</t>
+  </si>
+  <si>
+    <t>General Index (base 31/12/91 = 100)_lag_3</t>
+  </si>
+  <si>
+    <t>Tax Revenue - Income Tax (mill S/)_lag_1</t>
+  </si>
+  <si>
+    <t>Real Exchange Rate Index (monthly %)_lag_3</t>
+  </si>
+  <si>
+    <t>Independent Worker (3-month MA, thousands)_lag_3</t>
+  </si>
+  <si>
+    <t>GDP - Fishing_lag_1</t>
+  </si>
+  <si>
+    <t>Underemployed (3-month MA, thousands)_lag_2</t>
+  </si>
+  <si>
+    <t>GDP - Agriculture_lag_2</t>
+  </si>
+  <si>
+    <t>Monthly Income (3-month MA)_lag_2</t>
+  </si>
+  <si>
+    <t>Monthly Income (3-month MA)_lag_1</t>
+  </si>
+  <si>
+    <t>Business Expectations - Demand (3 months)_lag_1</t>
+  </si>
+  <si>
+    <t>Unemployment Rate (3-month MA, %)_lag_2</t>
+  </si>
+  <si>
+    <t>Independent Worker (3-month MA, thousands)_lag_2</t>
+  </si>
+  <si>
+    <t>Unemployment Rate (3-month MA, %)_lag_1</t>
+  </si>
+  <si>
+    <t>Underemployed (3-month MA, thousands)_lag_3</t>
+  </si>
+  <si>
+    <t>Business Expectations - Sales (MoM)_lag_3</t>
+  </si>
+  <si>
+    <t>Business Expectations - Sales (MoM)_lag_1</t>
+  </si>
+  <si>
+    <t>Electricity Production - Lima (GWh)_lag_2</t>
+  </si>
+  <si>
+    <t>Business Expectations - Economy (3 months)_lag_3</t>
+  </si>
+  <si>
+    <t>Electricity Production - Lima (GWh)_lag_3</t>
+  </si>
+  <si>
+    <t>GDP - Mining_lag_2</t>
+  </si>
+  <si>
+    <t>Firms 11-50 Workers (3-month MA, thousands)_lag_3</t>
+  </si>
+  <si>
+    <t>Coffee Price (US$ per ton)_lag_1</t>
+  </si>
+  <si>
+    <t>Crude Oil Price (US$ per barrel)_lag_1</t>
+  </si>
+  <si>
+    <t>Fishmeal Price (US$ per ton)_lag_2</t>
+  </si>
+  <si>
+    <t>GDP - Agriculture_lag_1</t>
+  </si>
+  <si>
+    <t>GDP - Construction_lag_3</t>
+  </si>
+  <si>
+    <t>Electricity Production - Lima (GWh)_lag_1</t>
+  </si>
+  <si>
+    <t>Unemployment Rate (3-month MA, %)_lag_3</t>
+  </si>
+  <si>
+    <t>Public Fixed Investment (mill S/ 2007)_lag_1</t>
+  </si>
+  <si>
+    <t>GDP - Fishing_lag_2</t>
+  </si>
+  <si>
+    <t>Dependent Worker (3-month MA, thousands)_lag_2</t>
+  </si>
+  <si>
+    <t>Chicken Placements (thousands)_lag_3</t>
+  </si>
+  <si>
+    <t>GDP by Expenditure - Domestic Demand ex. Inventories (mill S/ 2007)_lag_2</t>
+  </si>
+  <si>
+    <t>Business Expectations - Orders (MoM)_lag_2</t>
+  </si>
+  <si>
+    <t>GDP - Mining_lag_3</t>
+  </si>
+  <si>
+    <t>Gold (US$ per oz troy)_lag_1</t>
+  </si>
+  <si>
+    <t>Coffee Price (US$ per ton)_lag_3</t>
+  </si>
+  <si>
+    <t>GDP - Non-Primary Manufacturing_lag_2</t>
+  </si>
+  <si>
+    <t>GDP - Other Services (index 2007=100)_lag_1</t>
+  </si>
+  <si>
+    <t>Tax Revenue - VAT (mill S/)_lag_3</t>
+  </si>
+  <si>
+    <t>Copper Price (¢US$ per lb)_lag_3</t>
+  </si>
+  <si>
+    <t>Tax Revenue - Income Tax (mill S/)_lag_2</t>
+  </si>
+  <si>
+    <t>Business Expectations - Sales (MoM)_lag_2</t>
+  </si>
+  <si>
+    <t>Independent Worker (3-month MA, thousands)_lag_1</t>
+  </si>
+  <si>
+    <t>Business Expectations - Current Situation_lag_3</t>
+  </si>
+  <si>
+    <t>Underemployed (3-month MA, thousands)_lag_1</t>
+  </si>
+  <si>
+    <t>Chicken Placements (thousands)_lag_1</t>
+  </si>
+  <si>
+    <t>Adequately Employed (3-month MA, thousands)_lag_2</t>
+  </si>
+  <si>
+    <t>GDP - Other Services (index 2007=100)_lag_2</t>
+  </si>
+  <si>
+    <t>GDP - Construction_lag_2</t>
+  </si>
+  <si>
+    <t>Tax Revenue - VAT (mill S/)_lag_1</t>
+  </si>
+  <si>
+    <t>Tax Revenue - Income Tax (mill S/)_lag_3</t>
+  </si>
+  <si>
+    <t>Business Expectations - Orders (MoM)_lag_1</t>
+  </si>
+  <si>
+    <t>Tax Revenue - VAT (mill S/)_lag_2</t>
+  </si>
+  <si>
+    <t>GDP - Other Services (index 2007=100)_lag_3</t>
+  </si>
+  <si>
+    <t>Chicken Placements (thousands)_lag_2</t>
+  </si>
+  <si>
+    <t>Copper Price (¢US$ per lb)_lag_2</t>
   </si>
 </sst>
 </file>
@@ -485,7 +944,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,398 +960,2081 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.116674354461287</v>
+        <v>0.5320361717835178</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>28</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.1157487606645124</v>
+        <v>0.1636061978660646</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.06880312945118566</v>
+        <v>0.07817842617706582</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.06344405831005279</v>
+        <v>0.05135862260514362</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.06000592090159701</v>
+        <v>0.02804888213161167</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.05786541527748237</v>
+        <v>0.02092581894740238</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.05538401562997224</v>
+        <v>0.01965463487428142</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.04331489915098669</v>
+        <v>0.01500933329229065</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.04049051038069441</v>
+        <v>0.01251026893878609</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.03756362734573362</v>
+        <v>0.008728615199755072</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.03646402039090856</v>
+        <v>0.007893206837787129</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.03209397977800123</v>
+        <v>0.003192657461233465</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.03123006830126453</v>
+        <v>0.002831556909434879</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.02780936733192926</v>
+        <v>0.002737773649157016</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.02595331070977397</v>
+        <v>0.002674592144962565</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.02520213530779139</v>
+        <v>0.002521069866182195</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.01526838223218928</v>
+        <v>0.002515454176395563</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.01186605947766699</v>
+        <v>0.0023137738918925</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.01157837100994849</v>
+        <v>0.001635936939488785</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.01130626609512719</v>
+        <v>0.001615998091290988</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.01078180693256393</v>
+        <v>0.001286948546571157</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.0101946567503353</v>
+        <v>0.001285731127750725</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.009577285511925143</v>
+        <v>0.001279128766661349</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.008470529908457635</v>
+        <v>0.0009785019176630975</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.007846566798894119</v>
+        <v>0.000828793923017503</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.007652600202327244</v>
+        <v>0.0007952329192383906</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.007624410874180278</v>
+        <v>0.0007872665605768159</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.006646291365755611</v>
+        <v>0.0007420928868509555</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.006558395047511195</v>
+        <v>0.0007379136986388834</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.005719862412081003</v>
+        <v>0.0007216625071819017</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.005554900691656221</v>
+        <v>0.0006641277720118828</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.00547794398563406</v>
+        <v>0.0006437450784184277</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.00539856556458326</v>
+        <v>0.0006343731540824192</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.005224858340277636</v>
+        <v>0.0006077951737684453</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.004852709008202073</v>
+        <v>0.00058286176478029</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.004351964397510268</v>
+        <v>0.000538289379856143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>167</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38">
+        <v>0.0005191239215050361</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>0.0004777109607437001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>166</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>0.0004725701888083895</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>56</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>0.0004603415903029426</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>171</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>0.000451656083085216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>59</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>0.0004281540120296516</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>149</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>0.0004271625769683746</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>146</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>0.0004144679006077771</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>0.0004109018911345289</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>88</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>0.0003933023733141512</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>85</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>0.0003560444651642064</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>137</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>0.0003215802618625759</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>127</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>0.0003169900618792042</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>162</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>0.0003158307024682491</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>180</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.0003149928317786045</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>58</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53">
+        <v>0.0003111263981068697</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>141</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54">
+        <v>0.0002992137163981586</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55">
+        <v>0.0002964914107495205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>89</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56">
+        <v>0.0002859142852417625</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>123</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57">
+        <v>0.0002830859115899506</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>173</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58">
+        <v>0.0002811295940408615</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>185</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59">
+        <v>0.0002754893407651241</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>126</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60">
+        <v>0.0002729149082769607</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>163</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61">
+        <v>0.0002710267288699574</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>153</v>
+      </c>
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62">
+        <v>0.0002609823744006969</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>152</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63">
+        <v>0.0002589413394429422</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>29</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64">
+        <v>0.0002562034344610654</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>39</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65">
+        <v>0.0002545661619945056</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <v>45</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66">
+        <v>0.0002528925948296598</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>37</v>
+      </c>
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67">
+        <v>0.0002465018211960475</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>144</v>
+      </c>
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68">
+        <v>0.0002421792388014054</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>131</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69">
+        <v>0.000241896423602513</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>174</v>
+      </c>
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70">
+        <v>0.00023949640339303</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>135</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71">
+        <v>0.000238110965779588</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>102</v>
+      </c>
+      <c r="B72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72">
+        <v>0.0002360332087490911</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>169</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73">
+        <v>0.000235798976588763</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>81</v>
+      </c>
+      <c r="B74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74">
+        <v>0.0002354981423000944</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <v>168</v>
+      </c>
+      <c r="B75" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75">
+        <v>0.0002320515025289465</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>71</v>
+      </c>
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76">
+        <v>0.0002303015742443324</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <v>159</v>
+      </c>
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77">
+        <v>0.0002235471626525026</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>147</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78">
+        <v>0.00022264318816282</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <v>161</v>
+      </c>
+      <c r="B79" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79">
+        <v>0.0002209298766526115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>57</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80">
+        <v>0.0002190228575956388</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>93</v>
+      </c>
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81">
+        <v>0.000215469286135398</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>32</v>
+      </c>
+      <c r="B82" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82">
+        <v>0.0002123573718661354</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>172</v>
+      </c>
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83">
+        <v>0.0002114887889751268</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>148</v>
+      </c>
+      <c r="B84" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84">
+        <v>0.0002046668008144811</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85">
+        <v>0.0002030118185587686</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>63</v>
+      </c>
+      <c r="B86" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86">
+        <v>0.0002021599088215547</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>124</v>
+      </c>
+      <c r="B87" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87">
+        <v>0.0002000100688064743</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>68</v>
+      </c>
+      <c r="B88" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88">
+        <v>0.0001987009585465099</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>128</v>
+      </c>
+      <c r="B89" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89">
+        <v>0.0001956350288732274</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90">
+        <v>0.0001946231759413014</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>92</v>
+      </c>
+      <c r="B91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91">
+        <v>0.0001913722933319251</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>99</v>
+      </c>
+      <c r="B92" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92">
+        <v>0.0001899822869041192</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>134</v>
+      </c>
+      <c r="B93" t="s">
+        <v>93</v>
+      </c>
+      <c r="C93">
+        <v>0.0001899467920797966</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>22</v>
+      </c>
+      <c r="B94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94">
+        <v>0.00018850503255534</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <v>105</v>
+      </c>
+      <c r="B95" t="s">
+        <v>95</v>
+      </c>
+      <c r="C95">
+        <v>0.0001883000879823453</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <v>69</v>
+      </c>
+      <c r="B96" t="s">
+        <v>96</v>
+      </c>
+      <c r="C96">
+        <v>0.0001882284009134538</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>21</v>
+      </c>
+      <c r="B97" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97">
+        <v>0.0001802874945533451</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
+        <v>64</v>
+      </c>
+      <c r="B98" t="s">
+        <v>98</v>
+      </c>
+      <c r="C98">
+        <v>0.00017906164661857</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
+        <v>3</v>
+      </c>
+      <c r="B99" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99">
+        <v>0.000178132862346413</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>67</v>
+      </c>
+      <c r="B100" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100">
+        <v>0.0001757726023111569</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
+        <v>73</v>
+      </c>
+      <c r="B101" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101">
+        <v>0.0001745227001020831</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1">
+        <v>91</v>
+      </c>
+      <c r="B102" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102">
+        <v>0.0001745205535222175</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1">
+        <v>47</v>
+      </c>
+      <c r="B103" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103">
+        <v>0.000174426455882007</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1">
+        <v>33</v>
+      </c>
+      <c r="B104" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104">
+        <v>0.0001737745496551502</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1">
+        <v>65</v>
+      </c>
+      <c r="B105" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105">
+        <v>0.0001692539437281358</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1">
+        <v>151</v>
+      </c>
+      <c r="B106" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106">
+        <v>0.000168751419573109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1">
+        <v>82</v>
+      </c>
+      <c r="B107" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107">
+        <v>0.000168617732145928</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1">
+        <v>130</v>
+      </c>
+      <c r="B108" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108">
+        <v>0.0001671798097107865</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1">
+        <v>80</v>
+      </c>
+      <c r="B109" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109">
+        <v>0.000167111564364657</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1">
+        <v>75</v>
+      </c>
+      <c r="B110" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110">
+        <v>0.0001626281323952372</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1">
+        <v>107</v>
+      </c>
+      <c r="B111" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111">
+        <v>0.0001585187068360545</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1">
+        <v>94</v>
+      </c>
+      <c r="B112" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112">
+        <v>0.0001561760313602311</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1">
+        <v>142</v>
+      </c>
+      <c r="B113" t="s">
+        <v>113</v>
+      </c>
+      <c r="C113">
+        <v>0.0001543486024859101</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1">
+        <v>164</v>
+      </c>
+      <c r="B114" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114">
+        <v>0.0001523217580850111</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1">
+        <v>36</v>
+      </c>
+      <c r="B115" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115">
+        <v>0.0001516726979991964</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1">
+        <v>181</v>
+      </c>
+      <c r="B116" t="s">
+        <v>116</v>
+      </c>
+      <c r="C116">
+        <v>0.0001466537415755245</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1">
+        <v>136</v>
+      </c>
+      <c r="B117" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117">
+        <v>0.0001456584848952641</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1">
+        <v>42</v>
+      </c>
+      <c r="B118" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118">
+        <v>0.000145428175788527</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1">
+        <v>54</v>
+      </c>
+      <c r="B119" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119">
+        <v>0.0001424565742854764</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1">
+        <v>44</v>
+      </c>
+      <c r="B120" t="s">
+        <v>120</v>
+      </c>
+      <c r="C120">
+        <v>0.0001419579019920555</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1">
+        <v>165</v>
+      </c>
+      <c r="B121" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121">
+        <v>0.0001406274437997016</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1">
+        <v>100</v>
+      </c>
+      <c r="B122" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122">
+        <v>0.0001390222162868693</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1">
+        <v>79</v>
+      </c>
+      <c r="B123" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123">
+        <v>0.0001383743677197085</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1">
+        <v>23</v>
+      </c>
+      <c r="B124" t="s">
+        <v>124</v>
+      </c>
+      <c r="C124">
+        <v>0.0001375751882211036</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1">
+        <v>145</v>
+      </c>
+      <c r="B125" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125">
+        <v>0.0001375252280831248</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1">
+        <v>83</v>
+      </c>
+      <c r="B126" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126">
+        <v>0.0001362149523650874</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1">
+        <v>154</v>
+      </c>
+      <c r="B127" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127">
+        <v>0.000134323483765622</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1">
+        <v>106</v>
+      </c>
+      <c r="B128" t="s">
+        <v>128</v>
+      </c>
+      <c r="C128">
+        <v>0.0001306933306292804</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1">
+        <v>103</v>
+      </c>
+      <c r="B129" t="s">
+        <v>129</v>
+      </c>
+      <c r="C129">
+        <v>0.0001304786275513067</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1">
+        <v>51</v>
+      </c>
+      <c r="B130" t="s">
+        <v>130</v>
+      </c>
+      <c r="C130">
+        <v>0.0001303511393127712</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1">
+        <v>52</v>
+      </c>
+      <c r="B131" t="s">
+        <v>131</v>
+      </c>
+      <c r="C131">
+        <v>0.0001298410587228763</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1">
+        <v>101</v>
+      </c>
+      <c r="B132" t="s">
+        <v>132</v>
+      </c>
+      <c r="C132">
+        <v>0.0001278230030556136</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1">
+        <v>150</v>
+      </c>
+      <c r="B133" t="s">
+        <v>133</v>
+      </c>
+      <c r="C133">
+        <v>0.0001270699688622772</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1">
+        <v>104</v>
+      </c>
+      <c r="B134" t="s">
+        <v>134</v>
+      </c>
+      <c r="C134">
+        <v>0.0001244774873526131</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1">
+        <v>111</v>
+      </c>
+      <c r="B135" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135">
+        <v>0.0001241663082355349</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1">
+        <v>95</v>
+      </c>
+      <c r="B136" t="s">
+        <v>136</v>
+      </c>
+      <c r="C136">
+        <v>0.0001221381210861082</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1">
+        <v>158</v>
+      </c>
+      <c r="B137" t="s">
+        <v>137</v>
+      </c>
+      <c r="C137">
+        <v>0.0001220343817438277</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1">
+        <v>30</v>
+      </c>
+      <c r="B138" t="s">
+        <v>138</v>
+      </c>
+      <c r="C138">
+        <v>0.0001185198364274322</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1">
+        <v>178</v>
+      </c>
+      <c r="B139" t="s">
+        <v>139</v>
+      </c>
+      <c r="C139">
+        <v>0.0001182074526576182</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1">
+        <v>28</v>
+      </c>
+      <c r="B140" t="s">
+        <v>140</v>
+      </c>
+      <c r="C140">
+        <v>0.0001172973343808355</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1">
+        <v>184</v>
+      </c>
+      <c r="B141" t="s">
+        <v>141</v>
+      </c>
+      <c r="C141">
+        <v>0.0001172743125272849</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1">
+        <v>183</v>
+      </c>
+      <c r="B142" t="s">
+        <v>142</v>
+      </c>
+      <c r="C142">
+        <v>0.0001135977329856634</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1">
+        <v>129</v>
+      </c>
+      <c r="B143" t="s">
+        <v>143</v>
+      </c>
+      <c r="C143">
+        <v>0.0001114853717247791</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1">
+        <v>187</v>
+      </c>
+      <c r="B144" t="s">
+        <v>144</v>
+      </c>
+      <c r="C144">
+        <v>0.0001099143545414521</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1">
+        <v>157</v>
+      </c>
+      <c r="B145" t="s">
+        <v>145</v>
+      </c>
+      <c r="C145">
+        <v>0.0001098857308723643</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1">
+        <v>186</v>
+      </c>
+      <c r="B146" t="s">
+        <v>146</v>
+      </c>
+      <c r="C146">
+        <v>0.0001095741364851506</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1">
+        <v>179</v>
+      </c>
+      <c r="B147" t="s">
+        <v>147</v>
+      </c>
+      <c r="C147">
+        <v>0.0001095471336573251</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1">
+        <v>140</v>
+      </c>
+      <c r="B148" t="s">
+        <v>148</v>
+      </c>
+      <c r="C148">
+        <v>0.0001089640618259085</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1">
+        <v>138</v>
+      </c>
+      <c r="B149" t="s">
+        <v>149</v>
+      </c>
+      <c r="C149">
+        <v>0.0001083977584825008</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1">
+        <v>25</v>
+      </c>
+      <c r="B150" t="s">
+        <v>150</v>
+      </c>
+      <c r="C150">
+        <v>0.0001076009993234471</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1">
+        <v>125</v>
+      </c>
+      <c r="B151" t="s">
+        <v>151</v>
+      </c>
+      <c r="C151">
+        <v>0.0001053242783454661</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1">
+        <v>26</v>
+      </c>
+      <c r="B152" t="s">
+        <v>152</v>
+      </c>
+      <c r="C152">
+        <v>0.0001036297538578497</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1">
+        <v>34</v>
+      </c>
+      <c r="B153" t="s">
+        <v>153</v>
+      </c>
+      <c r="C153">
+        <v>0.0001035634620369158</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1">
+        <v>170</v>
+      </c>
+      <c r="B154" t="s">
+        <v>154</v>
+      </c>
+      <c r="C154">
+        <v>0.0001003904377724337</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1">
+        <v>72</v>
+      </c>
+      <c r="B155" t="s">
+        <v>155</v>
+      </c>
+      <c r="C155">
+        <v>9.953530290790811E-05</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1">
+        <v>90</v>
+      </c>
+      <c r="B156" t="s">
+        <v>156</v>
+      </c>
+      <c r="C156">
+        <v>9.857591961214691E-05</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1">
+        <v>70</v>
+      </c>
+      <c r="B157" t="s">
+        <v>157</v>
+      </c>
+      <c r="C157">
+        <v>9.793520885971322E-05</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1">
+        <v>27</v>
+      </c>
+      <c r="B158" t="s">
+        <v>158</v>
+      </c>
+      <c r="C158">
+        <v>9.617380688886732E-05</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1">
+        <v>41</v>
+      </c>
+      <c r="B159" t="s">
+        <v>159</v>
+      </c>
+      <c r="C159">
+        <v>9.543915548686818E-05</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1">
+        <v>24</v>
+      </c>
+      <c r="B160" t="s">
+        <v>160</v>
+      </c>
+      <c r="C160">
+        <v>9.518429202524562E-05</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1">
+        <v>188</v>
+      </c>
+      <c r="B161" t="s">
+        <v>161</v>
+      </c>
+      <c r="C161">
+        <v>9.492943978737562E-05</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1">
+        <v>66</v>
+      </c>
+      <c r="B162" t="s">
+        <v>162</v>
+      </c>
+      <c r="C162">
+        <v>9.469486168955064E-05</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1">
+        <v>31</v>
+      </c>
+      <c r="B163" t="s">
+        <v>163</v>
+      </c>
+      <c r="C163">
+        <v>9.228229015089358E-05</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1">
+        <v>160</v>
+      </c>
+      <c r="B164" t="s">
+        <v>164</v>
+      </c>
+      <c r="C164">
+        <v>8.746399943472533E-05</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1">
+        <v>11</v>
+      </c>
+      <c r="B165" t="s">
+        <v>165</v>
+      </c>
+      <c r="C165">
+        <v>8.647738146934158E-05</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1">
+        <v>55</v>
+      </c>
+      <c r="B166" t="s">
+        <v>166</v>
+      </c>
+      <c r="C166">
+        <v>8.486515504321122E-05</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1">
+        <v>133</v>
+      </c>
+      <c r="B167" t="s">
+        <v>167</v>
+      </c>
+      <c r="C167">
+        <v>8.224732768115756E-05</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1">
+        <v>35</v>
+      </c>
+      <c r="B168" t="s">
+        <v>168</v>
+      </c>
+      <c r="C168">
+        <v>8.15293584508317E-05</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1">
+        <v>78</v>
+      </c>
+      <c r="B169" t="s">
+        <v>169</v>
+      </c>
+      <c r="C169">
+        <v>8.125710763800231E-05</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1">
+        <v>74</v>
+      </c>
+      <c r="B170" t="s">
+        <v>170</v>
+      </c>
+      <c r="C170">
+        <v>8.012231292420929E-05</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1">
+        <v>43</v>
+      </c>
+      <c r="B171" t="s">
+        <v>171</v>
+      </c>
+      <c r="C171">
+        <v>7.51584339954545E-05</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1">
+        <v>48</v>
+      </c>
+      <c r="B172" t="s">
+        <v>172</v>
+      </c>
+      <c r="C172">
+        <v>7.367220980255931E-05</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1">
+        <v>110</v>
+      </c>
+      <c r="B173" t="s">
+        <v>173</v>
+      </c>
+      <c r="C173">
+        <v>7.322926100010072E-05</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1">
+        <v>77</v>
+      </c>
+      <c r="B174" t="s">
+        <v>174</v>
+      </c>
+      <c r="C174">
+        <v>6.658005942591391E-05</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1">
+        <v>112</v>
+      </c>
+      <c r="B175" t="s">
+        <v>175</v>
+      </c>
+      <c r="C175">
+        <v>6.152920742051268E-05</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1">
+        <v>139</v>
+      </c>
+      <c r="B176" t="s">
+        <v>176</v>
+      </c>
+      <c r="C176">
+        <v>6.123189643426906E-05</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1">
+        <v>156</v>
+      </c>
+      <c r="B177" t="s">
+        <v>177</v>
+      </c>
+      <c r="C177">
+        <v>5.971426315145083E-05</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1">
+        <v>143</v>
+      </c>
+      <c r="B178" t="s">
+        <v>178</v>
+      </c>
+      <c r="C178">
+        <v>5.563625880914676E-05</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>179</v>
+      </c>
+      <c r="C179">
+        <v>5.444708394668325E-05</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1">
+        <v>9</v>
+      </c>
+      <c r="B180" t="s">
+        <v>180</v>
+      </c>
+      <c r="C180">
+        <v>5.392671445727552E-05</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1">
+        <v>175</v>
+      </c>
+      <c r="B181" t="s">
+        <v>181</v>
+      </c>
+      <c r="C181">
+        <v>5.150874688204824E-05</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1">
+        <v>49</v>
+      </c>
+      <c r="B182" t="s">
+        <v>182</v>
+      </c>
+      <c r="C182">
+        <v>5.107049999350932E-05</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1">
+        <v>40</v>
+      </c>
+      <c r="B183" t="s">
+        <v>183</v>
+      </c>
+      <c r="C183">
+        <v>4.854908110737618E-05</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1">
+        <v>108</v>
+      </c>
+      <c r="B184" t="s">
+        <v>184</v>
+      </c>
+      <c r="C184">
+        <v>4.734992178371296E-05</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1">
+        <v>113</v>
+      </c>
+      <c r="B185" t="s">
+        <v>185</v>
+      </c>
+      <c r="C185">
+        <v>4.614076145837551E-05</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1">
+        <v>132</v>
+      </c>
+      <c r="B186" t="s">
+        <v>186</v>
+      </c>
+      <c r="C186">
+        <v>4.373093068715997E-05</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1">
+        <v>109</v>
+      </c>
+      <c r="B187" t="s">
+        <v>187</v>
+      </c>
+      <c r="C187">
+        <v>3.935526629685674E-05</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1">
+        <v>50</v>
+      </c>
+      <c r="B188" t="s">
+        <v>188</v>
+      </c>
+      <c r="C188">
+        <v>3.832260687005946E-05</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1">
+        <v>10</v>
+      </c>
+      <c r="B189" t="s">
+        <v>189</v>
+      </c>
+      <c r="C189">
+        <v>3.06586328130941E-05</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1">
+        <v>76</v>
+      </c>
+      <c r="B190" t="s">
+        <v>190</v>
+      </c>
+      <c r="C190">
+        <v>2.159622171780175E-05</v>
       </c>
     </row>
   </sheetData>
